--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tff3-Ackr3.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Tff3</t>
+  </si>
+  <si>
+    <t>Ackr3</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Tff3</t>
-  </si>
-  <si>
-    <t>Ackr3</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -525,55 +525,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.2167346666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.650204</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.7901163333333333</v>
-      </c>
-      <c r="H2">
-        <v>2.370349</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>9.688363000000001</v>
+        <v>16.034937</v>
       </c>
       <c r="N2">
-        <v>29.065089</v>
+        <v>48.10481100000001</v>
       </c>
       <c r="O2">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="P2">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="Q2">
-        <v>7.654933849562334</v>
+        <v>3.475326725716001</v>
       </c>
       <c r="R2">
-        <v>68.89440464606101</v>
+        <v>31.277940531444</v>
       </c>
       <c r="S2">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
       <c r="T2">
-        <v>0.1053077753334822</v>
+        <v>0.1585295454080115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7901163333333333</v>
+        <v>0.2167346666666667</v>
       </c>
       <c r="H3">
-        <v>2.370349</v>
+        <v>0.650204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.80093133333334</v>
+        <v>71.80093133333332</v>
       </c>
       <c r="N3">
         <v>215.402794</v>
       </c>
       <c r="O3">
-        <v>0.780441065800843</v>
+        <v>0.7098605379082673</v>
       </c>
       <c r="P3">
-        <v>0.7804410658008429</v>
+        <v>0.7098605379082674</v>
       </c>
       <c r="Q3">
-        <v>56.73108859501178</v>
+        <v>15.56175091888622</v>
       </c>
       <c r="R3">
-        <v>510.579797355106</v>
+        <v>140.055758269976</v>
       </c>
       <c r="S3">
-        <v>0.780441065800843</v>
+        <v>0.7098605379082673</v>
       </c>
       <c r="T3">
-        <v>0.7804410658008429</v>
+        <v>0.7098605379082674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,19 +649,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.7901163333333333</v>
+        <v>0.2167346666666667</v>
       </c>
       <c r="H4">
-        <v>2.370349</v>
+        <v>0.650204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.51115833333333</v>
+        <v>13.312072</v>
       </c>
       <c r="N4">
-        <v>31.533475</v>
+        <v>39.936216</v>
       </c>
       <c r="O4">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="P4">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="Q4">
-        <v>8.305037881419445</v>
+        <v>2.885187487562667</v>
       </c>
       <c r="R4">
-        <v>74.74534093277501</v>
+        <v>25.966687388064</v>
       </c>
       <c r="S4">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
       <c r="T4">
-        <v>0.1142511588656749</v>
+        <v>0.1316099166837212</v>
       </c>
     </row>
   </sheetData>
